--- a/log_aktivitas_baterai_hp.xlsx
+++ b/log_aktivitas_baterai_hp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TI ULM\SEMESTER 7\KECERDASAN BISNIS\UAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0CA8FB-C725-404F-8720-742427362FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3C606D-CCB6-4607-B108-E910D68BC93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
   <si>
     <t>log_id</t>
   </si>
@@ -122,6 +122,24 @@
   </si>
   <si>
     <t>D001</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>Preview</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>E-Commerce</t>
+  </si>
+  <si>
+    <t>YouTube</t>
   </si>
 </sst>
 </file>
@@ -163,7 +181,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -467,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,6 +865,144 @@
         <v>30</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>229</v>
+      </c>
+      <c r="F17" s="1">
+        <v>51</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1">
+        <v>47</v>
+      </c>
+      <c r="F18" s="1">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1">
+        <v>38</v>
+      </c>
+      <c r="F19" s="1">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
